--- a/data/trans_dic/P55_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>79,74%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>58,91%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>67,77%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>66,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>53,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>71,63%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>72,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>56,33%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58,7%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,57; 79,96</t>
+          <t>71,11; 80,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,16; 62,96</t>
+          <t>75,7; 83,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,99; 71,35</t>
+          <t>54,89; 62,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,49; 58,06</t>
+          <t>58,62; 66,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,74; 74,31</t>
+          <t>64,15; 71,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,67; 59,01</t>
+          <t>62,05; 70,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>50,55; 57,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51,62; 58,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68,69; 74,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69,48; 75,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53,5; 58,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56,3; 61,44</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>62,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>65,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>63,99%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>51,63%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>66,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66,37%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>57,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>59,47%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,47; 73,5</t>
+          <t>63,53; 74,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,99; 69,82</t>
+          <t>67,68; 77,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,08; 67,95</t>
+          <t>55,13; 69,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,3; 58,12</t>
+          <t>58,6; 71,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,84; 69,42</t>
+          <t>59,1; 67,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,62; 62,21</t>
+          <t>56,07; 67,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44,55; 58,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46,4; 60,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62,94; 69,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,82; 70,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,15; 62,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54,79; 64,37</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>61,24%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>54,68%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>64,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,36; 81,31</t>
+          <t>60,97; 81,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>45,85; 72,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>46,18; 61,31</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,25; 70,02</t>
+          <t>47,33; 62,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>54,69; 73,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57,36; 70,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53,64; 69,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,78%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>59,86%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>64,63%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>56,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58,87%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,2; 75,89</t>
+          <t>68,97; 75,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,32</t>
+          <t>71,12; 77,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,87; 67,08</t>
+          <t>56,64; 63,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,88; 56,49</t>
+          <t>60,16; 67,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,65; 70,74</t>
+          <t>62,27; 67,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,18; 58,95</t>
+          <t>61,3; 67,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50,26; 56,73</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51,37; 57,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66,67; 70,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>67,02; 71,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54,15; 59,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56,64; 61,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 99,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>526.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>483.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1095.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>845.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>893.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1234773</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1275504</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>132842</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>140649</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1186345</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1177352</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126069</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>128911</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2421118</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2452857</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>258912</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>269561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1156003; 1301359</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1210812; 1340024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>123788; 141382</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>131596; 148720</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1125567; 1246424</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1104551; 1248124</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>118351; 135018</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>121186; 136888</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2321881; 2512065</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2348373; 2550514</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>245923; 271045</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>258547; 282148</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>915903</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1004722</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44039</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46860</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>857642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>839419</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33304</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34426</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1773545</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1844140</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>77343</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81286</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>846243; 986190</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>927963; 1064274</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38572; 48393</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42154; 51265</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>792072; 910501</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>761366; 910572</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28734; 38014</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30046; 39049</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1681937; 1860508</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1741644; 1935615</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70127; 84238</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74887; 87987</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>298917</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>256981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>222036</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>262588</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>520953</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>519569</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>246938; 330526</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>192421; 305004</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>192387; 254795</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>222120; 297203</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>465497; 568223</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>442943; 574957</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>780.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1063.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2053.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1621.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1096.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2449592</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2537207</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>176881</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>187509</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2266022</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2279359</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159374</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>163337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4715615</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4816566</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>336254</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>350847</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2319192; 2548910</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2411199; 2642203</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>167352; 187489</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>178337; 198785</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2180304; 2355697</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2172698; 2380369</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>150096; 169397</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>153856; 172272</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4576420; 4849585</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4647288; 4972506</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>321702; 351919</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>337511; 364359</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
